--- a/natmiOut/OldD2/LR-pairs_lrc2p/Sema4g-Plxnb2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Sema4g-Plxnb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -85,6 +88,9 @@
     <t>M2</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>Plxnb2</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.450389778082359</v>
+        <v>0.47325</v>
       </c>
       <c r="H2">
-        <v>0.450389778082359</v>
+        <v>0.9465</v>
       </c>
       <c r="I2">
-        <v>0.1276479991866397</v>
+        <v>0.09772214985838805</v>
       </c>
       <c r="J2">
-        <v>0.1276479991866397</v>
+        <v>0.0865888309464914</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.3900529084358</v>
+        <v>15.0074085</v>
       </c>
       <c r="N2">
-        <v>13.3900529084358</v>
+        <v>30.014817</v>
       </c>
       <c r="O2">
-        <v>0.06436690057170613</v>
+        <v>0.07002973299615803</v>
       </c>
       <c r="P2">
-        <v>0.06436690057170613</v>
+        <v>0.04985873736734435</v>
       </c>
       <c r="Q2">
-        <v>6.030742957941446</v>
+        <v>7.102256072625</v>
       </c>
       <c r="R2">
-        <v>6.030742957941446</v>
+        <v>28.4090242905</v>
       </c>
       <c r="S2">
-        <v>0.008216306071823661</v>
+        <v>0.006843456062393457</v>
       </c>
       <c r="T2">
-        <v>0.008216306071823661</v>
+        <v>0.004317209781106494</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.450389778082359</v>
+        <v>0.47325</v>
       </c>
       <c r="H3">
-        <v>0.450389778082359</v>
+        <v>0.9465</v>
       </c>
       <c r="I3">
-        <v>0.1276479991866397</v>
+        <v>0.09772214985838805</v>
       </c>
       <c r="J3">
-        <v>0.1276479991866397</v>
+        <v>0.0865888309464914</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>29.0642472037446</v>
+        <v>30.578114</v>
       </c>
       <c r="N3">
-        <v>29.0642472037446</v>
+        <v>91.734342</v>
       </c>
       <c r="O3">
-        <v>0.1397138250870031</v>
+        <v>0.1426880036580654</v>
       </c>
       <c r="P3">
-        <v>0.1397138250870031</v>
+        <v>0.1523833533732405</v>
       </c>
       <c r="Q3">
-        <v>13.09023984822535</v>
+        <v>14.4710924505</v>
       </c>
       <c r="R3">
-        <v>13.09023984822535</v>
+        <v>86.826554703</v>
       </c>
       <c r="S3">
-        <v>0.01783419023106809</v>
+        <v>0.01394377847646769</v>
       </c>
       <c r="T3">
-        <v>0.01783419023106809</v>
+        <v>0.01319469642429498</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.450389778082359</v>
+        <v>0.47325</v>
       </c>
       <c r="H4">
-        <v>0.450389778082359</v>
+        <v>0.9465</v>
       </c>
       <c r="I4">
-        <v>0.1276479991866397</v>
+        <v>0.09772214985838805</v>
       </c>
       <c r="J4">
-        <v>0.1276479991866397</v>
+        <v>0.0865888309464914</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>60.7305029151054</v>
+        <v>62.35535266666667</v>
       </c>
       <c r="N4">
-        <v>60.7305029151054</v>
+        <v>187.066058</v>
       </c>
       <c r="O4">
-        <v>0.2919356831176961</v>
+        <v>0.2909715357003801</v>
       </c>
       <c r="P4">
-        <v>0.2919356831176961</v>
+        <v>0.3107424395146705</v>
       </c>
       <c r="Q4">
-        <v>27.35239773076438</v>
+        <v>29.5096706495</v>
       </c>
       <c r="R4">
-        <v>27.35239773076438</v>
+        <v>177.058023897</v>
       </c>
       <c r="S4">
-        <v>0.03726500584115877</v>
+        <v>0.02843436401623785</v>
       </c>
       <c r="T4">
-        <v>0.03726500584115877</v>
+        <v>0.02690682456303613</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.450389778082359</v>
+        <v>0.47325</v>
       </c>
       <c r="H5">
-        <v>0.450389778082359</v>
+        <v>0.9465</v>
       </c>
       <c r="I5">
-        <v>0.1276479991866397</v>
+        <v>0.09772214985838805</v>
       </c>
       <c r="J5">
-        <v>0.1276479991866397</v>
+        <v>0.0865888309464914</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>70.3542313208229</v>
+        <v>71.521033</v>
       </c>
       <c r="N5">
-        <v>70.3542313208229</v>
+        <v>214.563099</v>
       </c>
       <c r="O5">
-        <v>0.3381976040866316</v>
+        <v>0.3337417545873698</v>
       </c>
       <c r="P5">
-        <v>0.3381976040866316</v>
+        <v>0.3564188048111206</v>
       </c>
       <c r="Q5">
-        <v>31.68682663174038</v>
+        <v>33.84732886725</v>
       </c>
       <c r="R5">
-        <v>31.68682663174038</v>
+        <v>203.0839732035</v>
       </c>
       <c r="S5">
-        <v>0.04317024749137385</v>
+        <v>0.03261396175578832</v>
       </c>
       <c r="T5">
-        <v>0.04317024749137385</v>
+        <v>0.03086188763594064</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.450389778082359</v>
+        <v>0.47325</v>
       </c>
       <c r="H6">
-        <v>0.450389778082359</v>
+        <v>0.9465</v>
       </c>
       <c r="I6">
-        <v>0.1276479991866397</v>
+        <v>0.09772214985838805</v>
       </c>
       <c r="J6">
-        <v>0.1276479991866397</v>
+        <v>0.0865888309464914</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.712189524746471</v>
+        <v>8.941585666666667</v>
       </c>
       <c r="N6">
-        <v>8.712189524746471</v>
+        <v>26.824757</v>
       </c>
       <c r="O6">
-        <v>0.04188009119425687</v>
+        <v>0.04172451604811986</v>
       </c>
       <c r="P6">
-        <v>0.04188009119425687</v>
+        <v>0.04455960914923559</v>
       </c>
       <c r="Q6">
-        <v>3.923881106662016</v>
+        <v>4.23160541675</v>
       </c>
       <c r="R6">
-        <v>3.923881106662016</v>
+        <v>25.3896325005</v>
       </c>
       <c r="S6">
-        <v>0.005345909846700897</v>
+        <v>0.004077409410023086</v>
       </c>
       <c r="T6">
-        <v>0.005345909846700897</v>
+        <v>0.003858364463664892</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.450389778082359</v>
+        <v>0.47325</v>
       </c>
       <c r="H7">
-        <v>0.450389778082359</v>
+        <v>0.9465</v>
       </c>
       <c r="I7">
-        <v>0.1276479991866397</v>
+        <v>0.09772214985838805</v>
       </c>
       <c r="J7">
-        <v>0.1276479991866397</v>
+        <v>0.0865888309464914</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>25.7757712054458</v>
+        <v>25.8970305</v>
       </c>
       <c r="N7">
-        <v>25.7757712054458</v>
+        <v>51.794061</v>
       </c>
       <c r="O7">
-        <v>0.1239058959427061</v>
+        <v>0.1208444570099069</v>
       </c>
       <c r="P7">
-        <v>0.1239058959427061</v>
+        <v>0.0860370557843885</v>
       </c>
       <c r="Q7">
-        <v>11.60914387312239</v>
+        <v>12.255769684125</v>
       </c>
       <c r="R7">
-        <v>11.60914387312239</v>
+        <v>49.0230787365</v>
       </c>
       <c r="S7">
-        <v>0.01581633970451441</v>
+        <v>0.01180918013747765</v>
       </c>
       <c r="T7">
-        <v>0.01581633970451441</v>
+        <v>0.007449848078448266</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.153955402680274</v>
+        <v>0.4943966666666667</v>
       </c>
       <c r="H8">
-        <v>0.153955402680274</v>
+        <v>1.48319</v>
       </c>
       <c r="I8">
-        <v>0.04363353715482589</v>
+        <v>0.1020887589001321</v>
       </c>
       <c r="J8">
-        <v>0.04363353715482589</v>
+        <v>0.1356869394310899</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.3900529084358</v>
+        <v>15.0074085</v>
       </c>
       <c r="N8">
-        <v>13.3900529084358</v>
+        <v>30.014817</v>
       </c>
       <c r="O8">
-        <v>0.06436690057170613</v>
+        <v>0.07002973299615803</v>
       </c>
       <c r="P8">
-        <v>0.06436690057170613</v>
+        <v>0.04985873736734435</v>
       </c>
       <c r="Q8">
-        <v>2.061470987428407</v>
+        <v>7.419612737705</v>
       </c>
       <c r="R8">
-        <v>2.061470987428407</v>
+        <v>44.51767642623</v>
       </c>
       <c r="S8">
-        <v>0.002808555547636523</v>
+        <v>0.007149248527685404</v>
       </c>
       <c r="T8">
-        <v>0.002808555547636523</v>
+        <v>0.006765179477273471</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.153955402680274</v>
+        <v>0.4943966666666667</v>
       </c>
       <c r="H9">
-        <v>0.153955402680274</v>
+        <v>1.48319</v>
       </c>
       <c r="I9">
-        <v>0.04363353715482589</v>
+        <v>0.1020887589001321</v>
       </c>
       <c r="J9">
-        <v>0.04363353715482589</v>
+        <v>0.1356869394310899</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>29.0642472037446</v>
+        <v>30.578114</v>
       </c>
       <c r="N9">
-        <v>29.0642472037446</v>
+        <v>91.734342</v>
       </c>
       <c r="O9">
-        <v>0.1397138250870031</v>
+        <v>0.1426880036580654</v>
       </c>
       <c r="P9">
-        <v>0.1397138250870031</v>
+        <v>0.1523833533732405</v>
       </c>
       <c r="Q9">
-        <v>4.474597881851527</v>
+        <v>15.11771763455333</v>
       </c>
       <c r="R9">
-        <v>4.474597881851527</v>
+        <v>136.05945871098</v>
       </c>
       <c r="S9">
-        <v>0.006096208377976596</v>
+        <v>0.01456684120338941</v>
       </c>
       <c r="T9">
-        <v>0.006096208377976596</v>
+        <v>0.02067643083946125</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.153955402680274</v>
+        <v>0.4943966666666667</v>
       </c>
       <c r="H10">
-        <v>0.153955402680274</v>
+        <v>1.48319</v>
       </c>
       <c r="I10">
-        <v>0.04363353715482589</v>
+        <v>0.1020887589001321</v>
       </c>
       <c r="J10">
-        <v>0.04363353715482589</v>
+        <v>0.1356869394310899</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>60.7305029151054</v>
+        <v>62.35535266666667</v>
       </c>
       <c r="N10">
-        <v>60.7305029151054</v>
+        <v>187.066058</v>
       </c>
       <c r="O10">
-        <v>0.2919356831176961</v>
+        <v>0.2909715357003801</v>
       </c>
       <c r="P10">
-        <v>0.2919356831176961</v>
+        <v>0.3107424395146705</v>
       </c>
       <c r="Q10">
-        <v>9.349789031270605</v>
+        <v>30.82827850722444</v>
       </c>
       <c r="R10">
-        <v>9.349789031270605</v>
+        <v>277.45450656502</v>
       </c>
       <c r="S10">
-        <v>0.01273818647613547</v>
+        <v>0.02970492295491729</v>
       </c>
       <c r="T10">
-        <v>0.01273818647613547</v>
+        <v>0.04216369056909621</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.153955402680274</v>
+        <v>0.4943966666666667</v>
       </c>
       <c r="H11">
-        <v>0.153955402680274</v>
+        <v>1.48319</v>
       </c>
       <c r="I11">
-        <v>0.04363353715482589</v>
+        <v>0.1020887589001321</v>
       </c>
       <c r="J11">
-        <v>0.04363353715482589</v>
+        <v>0.1356869394310899</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>70.3542313208229</v>
+        <v>71.521033</v>
       </c>
       <c r="N11">
-        <v>70.3542313208229</v>
+        <v>214.563099</v>
       </c>
       <c r="O11">
-        <v>0.3381976040866316</v>
+        <v>0.3337417545873698</v>
       </c>
       <c r="P11">
-        <v>0.3381976040866316</v>
+        <v>0.3564188048111206</v>
       </c>
       <c r="Q11">
-        <v>10.83141401325843</v>
+        <v>35.35976031175667</v>
       </c>
       <c r="R11">
-        <v>10.83141401325843</v>
+        <v>318.23784280581</v>
       </c>
       <c r="S11">
-        <v>0.01475675772358714</v>
+        <v>0.03407128151897706</v>
       </c>
       <c r="T11">
-        <v>0.01475675772358714</v>
+        <v>0.04836137678050797</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.153955402680274</v>
+        <v>0.4943966666666667</v>
       </c>
       <c r="H12">
-        <v>0.153955402680274</v>
+        <v>1.48319</v>
       </c>
       <c r="I12">
-        <v>0.04363353715482589</v>
+        <v>0.1020887589001321</v>
       </c>
       <c r="J12">
-        <v>0.04363353715482589</v>
+        <v>0.1356869394310899</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.712189524746471</v>
+        <v>8.941585666666667</v>
       </c>
       <c r="N12">
-        <v>8.712189524746471</v>
+        <v>26.824757</v>
       </c>
       <c r="O12">
-        <v>0.04188009119425687</v>
+        <v>0.04172451604811986</v>
       </c>
       <c r="P12">
-        <v>0.04188009119425687</v>
+        <v>0.04455960914923559</v>
       </c>
       <c r="Q12">
-        <v>1.341288646509208</v>
+        <v>4.420690148314445</v>
       </c>
       <c r="R12">
-        <v>1.341288646509208</v>
+        <v>39.78621133483</v>
       </c>
       <c r="S12">
-        <v>0.001827376515172104</v>
+        <v>0.004259604059061201</v>
       </c>
       <c r="T12">
-        <v>0.001827376515172104</v>
+        <v>0.006046156987705368</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.153955402680274</v>
+        <v>0.4943966666666667</v>
       </c>
       <c r="H13">
-        <v>0.153955402680274</v>
+        <v>1.48319</v>
       </c>
       <c r="I13">
-        <v>0.04363353715482589</v>
+        <v>0.1020887589001321</v>
       </c>
       <c r="J13">
-        <v>0.04363353715482589</v>
+        <v>0.1356869394310899</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>25.7757712054458</v>
+        <v>25.8970305</v>
       </c>
       <c r="N13">
-        <v>25.7757712054458</v>
+        <v>51.794061</v>
       </c>
       <c r="O13">
-        <v>0.1239058959427061</v>
+        <v>0.1208444570099069</v>
       </c>
       <c r="P13">
-        <v>0.1239058959427061</v>
+        <v>0.0860370557843885</v>
       </c>
       <c r="Q13">
-        <v>3.96831923532902</v>
+        <v>12.803405555765</v>
       </c>
       <c r="R13">
-        <v>3.96831923532902</v>
+        <v>76.82043333458999</v>
       </c>
       <c r="S13">
-        <v>0.005406452514318058</v>
+        <v>0.01233686063610176</v>
       </c>
       <c r="T13">
-        <v>0.005406452514318058</v>
+        <v>0.01167410477704563</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.407484154528076</v>
+        <v>0.1649843333333333</v>
       </c>
       <c r="H14">
-        <v>0.407484154528076</v>
+        <v>0.494953</v>
       </c>
       <c r="I14">
-        <v>0.1154878275595698</v>
+        <v>0.03406787902015054</v>
       </c>
       <c r="J14">
-        <v>0.1154878275595698</v>
+        <v>0.04527987495346936</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>13.3900529084358</v>
+        <v>15.0074085</v>
       </c>
       <c r="N14">
-        <v>13.3900529084358</v>
+        <v>30.014817</v>
       </c>
       <c r="O14">
-        <v>0.06436690057170613</v>
+        <v>0.07002973299615803</v>
       </c>
       <c r="P14">
-        <v>0.06436690057170613</v>
+        <v>0.04985873736734435</v>
       </c>
       <c r="Q14">
-        <v>5.456234388480167</v>
+        <v>2.4759872864335</v>
       </c>
       <c r="R14">
-        <v>5.456234388480167</v>
+        <v>14.855923718601</v>
       </c>
       <c r="S14">
-        <v>0.007433593513769174</v>
+        <v>0.002385764471526556</v>
       </c>
       <c r="T14">
-        <v>0.007433593513769174</v>
+        <v>0.002257597393331222</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.407484154528076</v>
+        <v>0.1649843333333333</v>
       </c>
       <c r="H15">
-        <v>0.407484154528076</v>
+        <v>0.494953</v>
       </c>
       <c r="I15">
-        <v>0.1154878275595698</v>
+        <v>0.03406787902015054</v>
       </c>
       <c r="J15">
-        <v>0.1154878275595698</v>
+        <v>0.04527987495346936</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>29.0642472037446</v>
+        <v>30.578114</v>
       </c>
       <c r="N15">
-        <v>29.0642472037446</v>
+        <v>91.734342</v>
       </c>
       <c r="O15">
-        <v>0.1397138250870031</v>
+        <v>0.1426880036580654</v>
       </c>
       <c r="P15">
-        <v>0.1397138250870031</v>
+        <v>0.1523833533732405</v>
       </c>
       <c r="Q15">
-        <v>11.84322019881287</v>
+        <v>5.044909752880666</v>
       </c>
       <c r="R15">
-        <v>11.84322019881287</v>
+        <v>45.404187775926</v>
       </c>
       <c r="S15">
-        <v>0.01613524613933572</v>
+        <v>0.00486107764624977</v>
       </c>
       <c r="T15">
-        <v>0.01613524613933572</v>
+        <v>0.006899899185730664</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.407484154528076</v>
+        <v>0.1649843333333333</v>
       </c>
       <c r="H16">
-        <v>0.407484154528076</v>
+        <v>0.494953</v>
       </c>
       <c r="I16">
-        <v>0.1154878275595698</v>
+        <v>0.03406787902015054</v>
       </c>
       <c r="J16">
-        <v>0.1154878275595698</v>
+        <v>0.04527987495346936</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>60.7305029151054</v>
+        <v>62.35535266666667</v>
       </c>
       <c r="N16">
-        <v>60.7305029151054</v>
+        <v>187.066058</v>
       </c>
       <c r="O16">
-        <v>0.2919356831176961</v>
+        <v>0.2909715357003801</v>
       </c>
       <c r="P16">
-        <v>0.2919356831176961</v>
+        <v>0.3107424395146705</v>
       </c>
       <c r="Q16">
-        <v>24.74671763442658</v>
+        <v>10.28765628947489</v>
       </c>
       <c r="R16">
-        <v>24.74671763442658</v>
+        <v>92.58890660527399</v>
       </c>
       <c r="S16">
-        <v>0.03371501783038171</v>
+        <v>0.009912783076547964</v>
       </c>
       <c r="T16">
-        <v>0.03371501783038171</v>
+        <v>0.0140703788039603</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.407484154528076</v>
+        <v>0.1649843333333333</v>
       </c>
       <c r="H17">
-        <v>0.407484154528076</v>
+        <v>0.494953</v>
       </c>
       <c r="I17">
-        <v>0.1154878275595698</v>
+        <v>0.03406787902015054</v>
       </c>
       <c r="J17">
-        <v>0.1154878275595698</v>
+        <v>0.04527987495346936</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>70.3542313208229</v>
+        <v>71.521033</v>
       </c>
       <c r="N17">
-        <v>70.3542313208229</v>
+        <v>214.563099</v>
       </c>
       <c r="O17">
-        <v>0.3381976040866316</v>
+        <v>0.3337417545873698</v>
       </c>
       <c r="P17">
-        <v>0.3381976040866316</v>
+        <v>0.3564188048111206</v>
       </c>
       <c r="Q17">
-        <v>28.66823446723821</v>
+        <v>11.79984994881633</v>
       </c>
       <c r="R17">
-        <v>28.66823446723821</v>
+        <v>106.198649539347</v>
       </c>
       <c r="S17">
-        <v>0.03905770658181659</v>
+        <v>0.01136987371925529</v>
       </c>
       <c r="T17">
-        <v>0.03905770658181659</v>
+        <v>0.01613859891291254</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.407484154528076</v>
+        <v>0.1649843333333333</v>
       </c>
       <c r="H18">
-        <v>0.407484154528076</v>
+        <v>0.494953</v>
       </c>
       <c r="I18">
-        <v>0.1154878275595698</v>
+        <v>0.03406787902015054</v>
       </c>
       <c r="J18">
-        <v>0.1154878275595698</v>
+        <v>0.04527987495346936</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>8.712189524746471</v>
+        <v>8.941585666666667</v>
       </c>
       <c r="N18">
-        <v>8.712189524746471</v>
+        <v>26.824757</v>
       </c>
       <c r="O18">
-        <v>0.04188009119425687</v>
+        <v>0.04172451604811986</v>
       </c>
       <c r="P18">
-        <v>0.04188009119425687</v>
+        <v>0.04455960914923559</v>
       </c>
       <c r="Q18">
-        <v>3.550079182579676</v>
+        <v>1.475221550157889</v>
       </c>
       <c r="R18">
-        <v>3.550079182579676</v>
+        <v>13.276993951421</v>
       </c>
       <c r="S18">
-        <v>0.004836640750021396</v>
+        <v>0.001421465764901677</v>
       </c>
       <c r="T18">
-        <v>0.004836640750021396</v>
+        <v>0.002017653530252857</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.407484154528076</v>
+        <v>0.1649843333333333</v>
       </c>
       <c r="H19">
-        <v>0.407484154528076</v>
+        <v>0.494953</v>
       </c>
       <c r="I19">
-        <v>0.1154878275595698</v>
+        <v>0.03406787902015054</v>
       </c>
       <c r="J19">
-        <v>0.1154878275595698</v>
+        <v>0.04527987495346936</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>25.7757712054458</v>
+        <v>25.8970305</v>
       </c>
       <c r="N19">
-        <v>25.7757712054458</v>
+        <v>51.794061</v>
       </c>
       <c r="O19">
-        <v>0.1239058959427061</v>
+        <v>0.1208444570099069</v>
       </c>
       <c r="P19">
-        <v>0.1239058959427061</v>
+        <v>0.0860370557843885</v>
       </c>
       <c r="Q19">
-        <v>10.50321833696021</v>
+        <v>4.272604312355499</v>
       </c>
       <c r="R19">
-        <v>10.50321833696021</v>
+        <v>25.635625874133</v>
       </c>
       <c r="S19">
-        <v>0.01430962274424525</v>
+        <v>0.00411691434166929</v>
       </c>
       <c r="T19">
-        <v>0.01430962274424525</v>
+        <v>0.003895747127281779</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.51654385467073</v>
+        <v>0.4885686666666667</v>
       </c>
       <c r="H20">
-        <v>2.51654385467073</v>
+        <v>1.465706</v>
       </c>
       <c r="I20">
-        <v>0.7132306360989646</v>
+        <v>0.1008853258533816</v>
       </c>
       <c r="J20">
-        <v>0.7132306360989646</v>
+        <v>0.1340874474920846</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>13.3900529084358</v>
+        <v>15.0074085</v>
       </c>
       <c r="N20">
-        <v>13.3900529084358</v>
+        <v>30.014817</v>
       </c>
       <c r="O20">
-        <v>0.06436690057170613</v>
+        <v>0.07002973299615803</v>
       </c>
       <c r="P20">
-        <v>0.06436690057170613</v>
+        <v>0.04985873736734435</v>
       </c>
       <c r="Q20">
-        <v>33.69665536044005</v>
+        <v>7.332149560967</v>
       </c>
       <c r="R20">
-        <v>33.69665536044005</v>
+        <v>43.992897365802</v>
       </c>
       <c r="S20">
-        <v>0.04590844543847677</v>
+        <v>0.007064972432742712</v>
       </c>
       <c r="T20">
-        <v>0.04590844543847677</v>
+        <v>0.006685430828765424</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.51654385467073</v>
+        <v>0.4885686666666667</v>
       </c>
       <c r="H21">
-        <v>2.51654385467073</v>
+        <v>1.465706</v>
       </c>
       <c r="I21">
-        <v>0.7132306360989646</v>
+        <v>0.1008853258533816</v>
       </c>
       <c r="J21">
-        <v>0.7132306360989646</v>
+        <v>0.1340874474920846</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>29.0642472037446</v>
+        <v>30.578114</v>
       </c>
       <c r="N21">
-        <v>29.0642472037446</v>
+        <v>91.734342</v>
       </c>
       <c r="O21">
-        <v>0.1397138250870031</v>
+        <v>0.1426880036580654</v>
       </c>
       <c r="P21">
-        <v>0.1397138250870031</v>
+        <v>0.1523833533732405</v>
       </c>
       <c r="Q21">
-        <v>73.14145269121443</v>
+        <v>14.93950838616133</v>
       </c>
       <c r="R21">
-        <v>73.14145269121443</v>
+        <v>134.455575475452</v>
       </c>
       <c r="S21">
-        <v>0.09964818033862272</v>
+        <v>0.01439512574441243</v>
       </c>
       <c r="T21">
-        <v>0.09964818033862272</v>
+        <v>0.02043269489410217</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.51654385467073</v>
+        <v>0.4885686666666667</v>
       </c>
       <c r="H22">
-        <v>2.51654385467073</v>
+        <v>1.465706</v>
       </c>
       <c r="I22">
-        <v>0.7132306360989646</v>
+        <v>0.1008853258533816</v>
       </c>
       <c r="J22">
-        <v>0.7132306360989646</v>
+        <v>0.1340874474920846</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>60.7305029151054</v>
+        <v>62.35535266666667</v>
       </c>
       <c r="N22">
-        <v>60.7305029151054</v>
+        <v>187.066058</v>
       </c>
       <c r="O22">
-        <v>0.2919356831176961</v>
+        <v>0.2909715357003801</v>
       </c>
       <c r="P22">
-        <v>0.2919356831176961</v>
+        <v>0.3107424395146705</v>
       </c>
       <c r="Q22">
-        <v>152.8309739020713</v>
+        <v>30.46487151188311</v>
       </c>
       <c r="R22">
-        <v>152.8309739020713</v>
+        <v>274.183843606948</v>
       </c>
       <c r="S22">
-        <v>0.2082174729700201</v>
+        <v>0.0293547581931917</v>
       </c>
       <c r="T22">
-        <v>0.2082174729700201</v>
+        <v>0.04166666054198567</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.51654385467073</v>
+        <v>0.4885686666666667</v>
       </c>
       <c r="H23">
-        <v>2.51654385467073</v>
+        <v>1.465706</v>
       </c>
       <c r="I23">
-        <v>0.7132306360989646</v>
+        <v>0.1008853258533816</v>
       </c>
       <c r="J23">
-        <v>0.7132306360989646</v>
+        <v>0.1340874474920846</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>70.3542313208229</v>
+        <v>71.521033</v>
       </c>
       <c r="N23">
-        <v>70.3542313208229</v>
+        <v>214.563099</v>
       </c>
       <c r="O23">
-        <v>0.3381976040866316</v>
+        <v>0.3337417545873698</v>
       </c>
       <c r="P23">
-        <v>0.3381976040866316</v>
+        <v>0.3564188048111206</v>
       </c>
       <c r="Q23">
-        <v>177.0495084804999</v>
+        <v>34.94293573143267</v>
       </c>
       <c r="R23">
-        <v>177.0495084804999</v>
+        <v>314.486421582894</v>
       </c>
       <c r="S23">
-        <v>0.2412128922898541</v>
+        <v>0.03366964566242612</v>
       </c>
       <c r="T23">
-        <v>0.2412128922898541</v>
+        <v>0.0477912877753027</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>27</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.51654385467073</v>
+        <v>0.4885686666666667</v>
       </c>
       <c r="H24">
-        <v>2.51654385467073</v>
+        <v>1.465706</v>
       </c>
       <c r="I24">
-        <v>0.7132306360989646</v>
+        <v>0.1008853258533816</v>
       </c>
       <c r="J24">
-        <v>0.7132306360989646</v>
+        <v>0.1340874474920846</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>8.712189524746471</v>
+        <v>8.941585666666667</v>
       </c>
       <c r="N24">
-        <v>8.712189524746471</v>
+        <v>26.824757</v>
       </c>
       <c r="O24">
-        <v>0.04188009119425687</v>
+        <v>0.04172451604811986</v>
       </c>
       <c r="P24">
-        <v>0.04188009119425687</v>
+        <v>0.04455960914923559</v>
       </c>
       <c r="Q24">
-        <v>21.92460700922744</v>
+        <v>4.368578587049111</v>
       </c>
       <c r="R24">
-        <v>21.92460700922744</v>
+        <v>39.317207283442</v>
       </c>
       <c r="S24">
-        <v>0.02987016408236248</v>
+        <v>0.004209391397589222</v>
       </c>
       <c r="T24">
-        <v>0.02987016408236248</v>
+        <v>0.005974884252065942</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,805 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.4885686666666667</v>
+      </c>
+      <c r="H25">
+        <v>1.465706</v>
+      </c>
+      <c r="I25">
+        <v>0.1008853258533816</v>
+      </c>
+      <c r="J25">
+        <v>0.1340874474920846</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>25.8970305</v>
+      </c>
+      <c r="N25">
+        <v>51.794061</v>
+      </c>
+      <c r="O25">
+        <v>0.1208444570099069</v>
+      </c>
+      <c r="P25">
+        <v>0.0860370557843885</v>
+      </c>
+      <c r="Q25">
+        <v>12.652477662011</v>
+      </c>
+      <c r="R25">
+        <v>75.914865972066</v>
+      </c>
+      <c r="S25">
+        <v>0.01219143242301942</v>
+      </c>
+      <c r="T25">
+        <v>0.01153648919986275</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.09739733333333334</v>
+      </c>
+      <c r="H26">
+        <v>0.292192</v>
+      </c>
+      <c r="I26">
+        <v>0.02011173122833042</v>
+      </c>
+      <c r="J26">
+        <v>0.02673065366288137</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>15.0074085</v>
+      </c>
+      <c r="N26">
+        <v>30.014817</v>
+      </c>
+      <c r="O26">
+        <v>0.07002973299615803</v>
+      </c>
+      <c r="P26">
+        <v>0.04985873736734435</v>
+      </c>
+      <c r="Q26">
+        <v>1.461681568144</v>
+      </c>
+      <c r="R26">
+        <v>8.770089408864001</v>
+      </c>
+      <c r="S26">
+        <v>0.001408419168010473</v>
+      </c>
+      <c r="T26">
+        <v>0.001332756640635043</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G27">
+        <v>0.09739733333333334</v>
+      </c>
+      <c r="H27">
+        <v>0.292192</v>
+      </c>
+      <c r="I27">
+        <v>0.02011173122833042</v>
+      </c>
+      <c r="J27">
+        <v>0.02673065366288137</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>30.578114</v>
+      </c>
+      <c r="N27">
+        <v>91.734342</v>
+      </c>
+      <c r="O27">
+        <v>0.1426880036580654</v>
+      </c>
+      <c r="P27">
+        <v>0.1523833533732405</v>
+      </c>
+      <c r="Q27">
+        <v>2.978226761962667</v>
+      </c>
+      <c r="R27">
+        <v>26.804040857664</v>
+      </c>
+      <c r="S27">
+        <v>0.00286970277907804</v>
+      </c>
+      <c r="T27">
+        <v>0.004073306643008557</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G28">
+        <v>0.09739733333333334</v>
+      </c>
+      <c r="H28">
+        <v>0.292192</v>
+      </c>
+      <c r="I28">
+        <v>0.02011173122833042</v>
+      </c>
+      <c r="J28">
+        <v>0.02673065366288137</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>62.35535266666667</v>
+      </c>
+      <c r="N28">
+        <v>187.066058</v>
+      </c>
+      <c r="O28">
+        <v>0.2909715357003801</v>
+      </c>
+      <c r="P28">
+        <v>0.3107424395146705</v>
+      </c>
+      <c r="Q28">
+        <v>6.07324506879289</v>
+      </c>
+      <c r="R28">
+        <v>54.659205619136</v>
+      </c>
+      <c r="S28">
+        <v>0.005851941321100595</v>
+      </c>
+      <c r="T28">
+        <v>0.008306348529025519</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G29">
+        <v>0.09739733333333334</v>
+      </c>
+      <c r="H29">
+        <v>0.292192</v>
+      </c>
+      <c r="I29">
+        <v>0.02011173122833042</v>
+      </c>
+      <c r="J29">
+        <v>0.02673065366288137</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>71.521033</v>
+      </c>
+      <c r="N29">
+        <v>214.563099</v>
+      </c>
+      <c r="O29">
+        <v>0.3337417545873698</v>
+      </c>
+      <c r="P29">
+        <v>0.3564188048111206</v>
+      </c>
+      <c r="Q29">
+        <v>6.965957891445334</v>
+      </c>
+      <c r="R29">
+        <v>62.693621023008</v>
+      </c>
+      <c r="S29">
+        <v>0.006712124467932594</v>
+      </c>
+      <c r="T29">
+        <v>0.00952730763034418</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G30">
+        <v>0.09739733333333334</v>
+      </c>
+      <c r="H30">
+        <v>0.292192</v>
+      </c>
+      <c r="I30">
+        <v>0.02011173122833042</v>
+      </c>
+      <c r="J30">
+        <v>0.02673065366288137</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>8.941585666666667</v>
+      </c>
+      <c r="N30">
+        <v>26.824757</v>
+      </c>
+      <c r="O30">
+        <v>0.04172451604811986</v>
+      </c>
+      <c r="P30">
+        <v>0.04455960914923559</v>
+      </c>
+      <c r="Q30">
+        <v>0.8708865997048889</v>
+      </c>
+      <c r="R30">
+        <v>7.837979397344001</v>
+      </c>
+      <c r="S30">
+        <v>0.0008391522523919461</v>
+      </c>
+      <c r="T30">
+        <v>0.001191107479521576</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G31">
+        <v>0.09739733333333334</v>
+      </c>
+      <c r="H31">
+        <v>0.292192</v>
+      </c>
+      <c r="I31">
+        <v>0.02011173122833042</v>
+      </c>
+      <c r="J31">
+        <v>0.02673065366288137</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>25.8970305</v>
+      </c>
+      <c r="N31">
+        <v>51.794061</v>
+      </c>
+      <c r="O31">
+        <v>0.1208444570099069</v>
+      </c>
+      <c r="P31">
+        <v>0.0860370557843885</v>
+      </c>
+      <c r="Q31">
+        <v>2.522301711952</v>
+      </c>
+      <c r="R31">
+        <v>15.133810271712</v>
+      </c>
+      <c r="S31">
+        <v>0.002430391239816778</v>
+      </c>
+      <c r="T31">
+        <v>0.002299826740346493</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>3.124215</v>
+      </c>
+      <c r="H32">
+        <v>6.24843</v>
+      </c>
+      <c r="I32">
+        <v>0.6451241551396172</v>
+      </c>
+      <c r="J32">
+        <v>0.5716262535139833</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>15.0074085</v>
+      </c>
+      <c r="N32">
+        <v>30.014817</v>
+      </c>
+      <c r="O32">
+        <v>0.07002973299615803</v>
+      </c>
+      <c r="P32">
+        <v>0.04985873736734435</v>
+      </c>
+      <c r="Q32">
+        <v>46.8863707468275</v>
+      </c>
+      <c r="R32">
+        <v>187.54548298731</v>
+      </c>
+      <c r="S32">
+        <v>0.04517787233379942</v>
+      </c>
+      <c r="T32">
+        <v>0.02850056324623269</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>3.124215</v>
+      </c>
+      <c r="H33">
+        <v>6.24843</v>
+      </c>
+      <c r="I33">
+        <v>0.6451241551396172</v>
+      </c>
+      <c r="J33">
+        <v>0.5716262535139833</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>30.578114</v>
+      </c>
+      <c r="N33">
+        <v>91.734342</v>
+      </c>
+      <c r="O33">
+        <v>0.1426880036580654</v>
+      </c>
+      <c r="P33">
+        <v>0.1523833533732405</v>
+      </c>
+      <c r="Q33">
+        <v>95.53260243051</v>
+      </c>
+      <c r="R33">
+        <v>573.19561458306</v>
+      </c>
+      <c r="S33">
+        <v>0.09205147780846804</v>
+      </c>
+      <c r="T33">
+        <v>0.08710632538664288</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>3.124215</v>
+      </c>
+      <c r="H34">
+        <v>6.24843</v>
+      </c>
+      <c r="I34">
+        <v>0.6451241551396172</v>
+      </c>
+      <c r="J34">
+        <v>0.5716262535139833</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>62.35535266666667</v>
+      </c>
+      <c r="N34">
+        <v>187.066058</v>
+      </c>
+      <c r="O34">
+        <v>0.2909715357003801</v>
+      </c>
+      <c r="P34">
+        <v>0.3107424395146705</v>
+      </c>
+      <c r="Q34">
+        <v>194.81152813149</v>
+      </c>
+      <c r="R34">
+        <v>1168.86916878894</v>
+      </c>
+      <c r="S34">
+        <v>0.1877127661383847</v>
+      </c>
+      <c r="T34">
+        <v>0.1776285365075667</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>2.51654385467073</v>
-      </c>
-      <c r="H25">
-        <v>2.51654385467073</v>
-      </c>
-      <c r="I25">
-        <v>0.7132306360989646</v>
-      </c>
-      <c r="J25">
-        <v>0.7132306360989646</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>25.7757712054458</v>
-      </c>
-      <c r="N25">
-        <v>25.7757712054458</v>
-      </c>
-      <c r="O25">
-        <v>0.1239058959427061</v>
-      </c>
-      <c r="P25">
-        <v>0.1239058959427061</v>
-      </c>
-      <c r="Q25">
-        <v>64.86585862646339</v>
-      </c>
-      <c r="R25">
-        <v>64.86585862646339</v>
-      </c>
-      <c r="S25">
-        <v>0.08837348097962841</v>
-      </c>
-      <c r="T25">
-        <v>0.08837348097962841</v>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>3.124215</v>
+      </c>
+      <c r="H35">
+        <v>6.24843</v>
+      </c>
+      <c r="I35">
+        <v>0.6451241551396172</v>
+      </c>
+      <c r="J35">
+        <v>0.5716262535139833</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>71.521033</v>
+      </c>
+      <c r="N35">
+        <v>214.563099</v>
+      </c>
+      <c r="O35">
+        <v>0.3337417545873698</v>
+      </c>
+      <c r="P35">
+        <v>0.3564188048111206</v>
+      </c>
+      <c r="Q35">
+        <v>223.447084114095</v>
+      </c>
+      <c r="R35">
+        <v>1340.68250468457</v>
+      </c>
+      <c r="S35">
+        <v>0.2153048674629904</v>
+      </c>
+      <c r="T35">
+        <v>0.2037383460761125</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>3.124215</v>
+      </c>
+      <c r="H36">
+        <v>6.24843</v>
+      </c>
+      <c r="I36">
+        <v>0.6451241551396172</v>
+      </c>
+      <c r="J36">
+        <v>0.5716262535139833</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>8.941585666666667</v>
+      </c>
+      <c r="N36">
+        <v>26.824757</v>
+      </c>
+      <c r="O36">
+        <v>0.04172451604811986</v>
+      </c>
+      <c r="P36">
+        <v>0.04455960914923559</v>
+      </c>
+      <c r="Q36">
+        <v>27.935436063585</v>
+      </c>
+      <c r="R36">
+        <v>167.61261638151</v>
+      </c>
+      <c r="S36">
+        <v>0.02691749316415272</v>
+      </c>
+      <c r="T36">
+        <v>0.02547144243602495</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>3.124215</v>
+      </c>
+      <c r="H37">
+        <v>6.24843</v>
+      </c>
+      <c r="I37">
+        <v>0.6451241551396172</v>
+      </c>
+      <c r="J37">
+        <v>0.5716262535139833</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>25.8970305</v>
+      </c>
+      <c r="N37">
+        <v>51.794061</v>
+      </c>
+      <c r="O37">
+        <v>0.1208444570099069</v>
+      </c>
+      <c r="P37">
+        <v>0.0860370557843885</v>
+      </c>
+      <c r="Q37">
+        <v>80.90789114355749</v>
+      </c>
+      <c r="R37">
+        <v>323.63156457423</v>
+      </c>
+      <c r="S37">
+        <v>0.07795967823182195</v>
+      </c>
+      <c r="T37">
+        <v>0.04918103986140358</v>
       </c>
     </row>
   </sheetData>
